--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3082449.21453266</v>
+        <v>3082449.214532659</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1033493.945456717</v>
+        <v>1065997.463829097</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>323.4885010385526</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>131.3860283451312</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>250.3682106968807</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>286.809269038669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>62.62684798287889</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>75.68973921670427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.7684131773236</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>23.35455705266789</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>144.0800242012101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>43.73078596494127</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>147.1163355383943</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>114.248126870465</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274128</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>200.8606251178235</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>61.47226067794325</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>3.577187817839332</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>208.964854519578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.1906585374994</v>
+        <v>89.24750864392267</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>234.1231749377858</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>128.5319531861586</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385031</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>76.16765894089225</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>197.0967272943897</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.977154170790891</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>49.12199829633348</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>236.9311102077155</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>237.3965091869248</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274019</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>12.84689523152501</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065128</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2509.407241604139</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2509.407241604139</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>2135.941483343059</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.612574238668</v>
+        <v>1254.177966138805</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.612574238668</v>
+        <v>885.2154491983931</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.346875631917</v>
+        <v>885.2154491983931</v>
       </c>
       <c r="E5" t="n">
-        <v>768.558623033673</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>761.6131222844696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>343.6493141826564</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1640.777806202927</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.309493689272</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>959.3469767488602</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>519.0782337829704</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>505.1548297215613</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2105.048665729205</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.909333753394</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>656.6110348804735</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>506.4943954681378</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,46 +5024,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="N12" t="n">
-        <v>2025.317482043085</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.7065213774121</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C13" t="n">
-        <v>819.7703384495052</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7703384495052</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.7065213774121</v>
+        <v>713.8401545872508</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5291,31 +5291,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,16 +5358,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>725.5020443651989</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.870190757661</v>
+        <v>1524.656841892396</v>
       </c>
       <c r="N15" t="n">
-        <v>1823.732818421694</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O15" t="n">
         <v>2103.272883640391</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1027.850635690703</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C16" t="n">
-        <v>858.9144527627957</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D16" t="n">
-        <v>708.7978133504599</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>560.8847197680668</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>413.9947722701564</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>245.819450589977</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>894.4654733330078</v>
       </c>
       <c r="Y16" t="n">
-        <v>1209.499100520942</v>
+        <v>894.4654733330078</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,19 +5595,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M18" t="n">
-        <v>772.8730769161742</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.284655180325</v>
+        <v>1515.525739481325</v>
       </c>
       <c r="O18" t="n">
-        <v>2246.748416482984</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
         <v>2554.178946862809</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1184.951646798694</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X19" t="n">
-        <v>892.7214197110717</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>381.3300194168667</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M21" t="n">
-        <v>1149.698165809328</v>
+        <v>1184.755496649499</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1184.755496649499</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>1854.219257952158</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.5712828402495</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E22" t="n">
         <v>247.6350999123426</v>
@@ -5938,22 +5938,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>887.6369177074498</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W22" t="n">
-        <v>598.2197476704893</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X22" t="n">
-        <v>598.2197476704893</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="Y22" t="n">
-        <v>598.2197476704893</v>
+        <v>399.1615145228562</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,28 +5987,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014291</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>2483.5678433005</v>
       </c>
       <c r="L24" t="n">
-        <v>738.0704661731477</v>
+        <v>2713.530949168849</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.405785702849</v>
+        <v>3481.89909556131</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>3811.761723225343</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>4340.553951278544</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>822.6075462588844</v>
+        <v>3887.539261805027</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6713633309776</v>
+        <v>3718.60307887712</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>3718.60307887712</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>4495.09498137023</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>4205.677811333269</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.499100520942</v>
+        <v>3977.688260435252</v>
       </c>
       <c r="Y25" t="n">
-        <v>1004.256011089124</v>
+        <v>3887.539261805027</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>2459.855719156278</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>2895.858532068202</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>3664.226678460664</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>4008.747334098282</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4678.211095400941</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,52 +6458,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>412.6079778147081</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M30" t="n">
-        <v>1180.97612420717</v>
+        <v>1062.192621491224</v>
       </c>
       <c r="N30" t="n">
-        <v>1985.38770247132</v>
+        <v>1866.604199755375</v>
       </c>
       <c r="O30" t="n">
-        <v>1985.38770247132</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>809.2953582963255</v>
       </c>
     </row>
     <row r="32">
@@ -6698,7 +6698,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6710,10 +6710,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6743,7 +6743,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>468.1423362718766</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>714.9074641783407</v>
       </c>
       <c r="M33" t="n">
-        <v>1442.339749591389</v>
+        <v>1483.275610570802</v>
       </c>
       <c r="N33" t="n">
-        <v>1786.860405229007</v>
+        <v>2287.687188834953</v>
       </c>
       <c r="O33" t="n">
-        <v>2035.613819312969</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>4186.289902337209</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>4186.289902337209</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916675</v>
@@ -6883,25 +6883,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690061</v>
+        <v>4407.082481480739</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>4407.082481480739</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>4186.289902337209</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K36" t="n">
-        <v>232.3332043549318</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L36" t="n">
-        <v>479.0983322613959</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>3102.866305490902</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>3671.090189975886</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>4340.553951278545</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.1830073829216</v>
+        <v>4186.289902337209</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>4186.289902337209</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4858.857447589251</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4858.857447589251</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4635.072032378756</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4635.072032378756</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>4635.072032378756</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.613602254709</v>
+        <v>4635.072032378756</v>
       </c>
       <c r="X37" t="n">
-        <v>966.6240513566914</v>
+        <v>4407.082481480739</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.8314722131613</v>
+        <v>4186.289902337209</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181233</v>
+        <v>378.8033212574256</v>
       </c>
       <c r="L39" t="n">
-        <v>658.5774644300484</v>
+        <v>625.5684491638897</v>
       </c>
       <c r="M39" t="n">
-        <v>1426.94561082251</v>
+        <v>1393.936595556351</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.466266460128</v>
+        <v>1738.457251193969</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>2407.921012496628</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916677</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916677</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916677</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="E40" t="n">
         <v>3459.155393916677</v>
@@ -7360,22 +7360,22 @@
         <v>4549.859459491671</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U40" t="n">
-        <v>4036.945405494735</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="V40" t="n">
-        <v>3782.260917288848</v>
+        <v>4295.174971285785</v>
       </c>
       <c r="W40" t="n">
-        <v>3492.843747251887</v>
+        <v>4055.850617540617</v>
       </c>
       <c r="X40" t="n">
-        <v>3459.155393916677</v>
+        <v>3827.8610666426</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916677</v>
+        <v>3607.06848749907</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>381.3300194168667</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>381.3300194168667</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1149.698165809328</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>1618.188259878082</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2287.652021180742</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7600,19 +7600,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>275.872457296028</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7655,43 +7655,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>2866.678611711736</v>
       </c>
       <c r="N45" t="n">
-        <v>1954.109744073479</v>
+        <v>3671.090189975887</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>4340.553951278546</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916675</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916675</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916675</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1485.939608707877</v>
       </c>
       <c r="T46" t="n">
-        <v>4741.167820987512</v>
+        <v>1262.154193497383</v>
       </c>
       <c r="U46" t="n">
-        <v>4452.03918220107</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="V46" t="n">
-        <v>4197.354693995183</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="W46" t="n">
-        <v>3907.937523958222</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="X46" t="n">
-        <v>3679.947973060205</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916675</v>
+        <v>973.0255547109413</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>316.9730248281983</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.1453102652862</v>
       </c>
       <c r="P30" t="n">
-        <v>128.7110027369642</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>133.8550965606868</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.353938445359034</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.8538673871535</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.797492829145625</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>111.4615285185722</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>20.68693594056575</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>164.2373947110939</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>176.254792364098</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>43.17278880425002</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,16 +24421,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.3939948145954</v>
+        <v>129.3371447081721</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>52.39982339880515</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>97.17770220287858</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>103.664321241045</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>89.42627104220134</v>
       </c>
       <c r="X34" t="n">
-        <v>82.3938331833848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>107.9871982330019</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>237.4010000402575</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>49.59188812887552</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>2.963168004552642</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25840,16 +25840,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>14.74113413690318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>185.0739147520782</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518765</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914264</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803339</v>
@@ -26332,28 +26332,28 @@
         <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.4955803343</v>
       </c>
-      <c r="L2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="O2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758374</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758181</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758461</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
+        <v>787.793690575921</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="K4" t="n">
-        <v>787.7936905758165</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575834</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26519,13 +26519,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671463</v>
+        <v>-155052.6805671465</v>
       </c>
       <c r="C6" t="n">
+        <v>434915.1986473979</v>
+      </c>
+      <c r="D6" t="n">
         <v>434915.198647398</v>
-      </c>
-      <c r="D6" t="n">
-        <v>434915.1986473979</v>
       </c>
       <c r="E6" t="n">
         <v>7711.33946414548</v>
@@ -26534,7 +26534,7 @@
         <v>532871.3759410414</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410419</v>
+        <v>532871.3759410416</v>
       </c>
       <c r="H6" t="n">
         <v>532871.3759410417</v>
@@ -26543,25 +26543,25 @@
         <v>532871.3759410419</v>
       </c>
       <c r="J6" t="n">
-        <v>356448.1567484486</v>
+        <v>356448.1567484487</v>
       </c>
       <c r="K6" t="n">
+        <v>532871.3759410416</v>
+      </c>
+      <c r="L6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="M6" t="n">
+        <v>398070.3607072046</v>
+      </c>
+      <c r="N6" t="n">
         <v>532871.3759410419</v>
       </c>
-      <c r="L6" t="n">
-        <v>532871.3759410417</v>
-      </c>
-      <c r="M6" t="n">
-        <v>398070.3607072047</v>
-      </c>
-      <c r="N6" t="n">
-        <v>532871.3759410417</v>
-      </c>
       <c r="O6" t="n">
-        <v>532871.3759410416</v>
+        <v>532871.375941042</v>
       </c>
       <c r="P6" t="n">
-        <v>532871.3759410415</v>
+        <v>532871.375941042</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>41.78439073245499</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>196.3662301250037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>131.5621593753811</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>37.11350372568813</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>85.98862503533346</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>96.92615468724713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>278.9933024039787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>29.15435958703353</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>96.44405126592677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>195.2300962994269</v>
       </c>
     </row>
     <row r="11">
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.555803160098856e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,34 +31835,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>39.703597144583</v>
       </c>
       <c r="O12" t="n">
-        <v>98.44906376001109</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>358.1449697398745</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>371.5654556441237</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,16 +32251,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32318,19 +32318,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>272.3223955169437</v>
       </c>
       <c r="P18" t="n">
-        <v>126.0475280469432</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>54.69678998811276</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>294.5468207019348</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.0697047810465</v>
@@ -32795,22 +32795,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>282.8674888578175</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33023,28 +33023,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>208.1209162056313</v>
       </c>
       <c r="M27" t="n">
-        <v>396.5537155454427</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33260,13 +33260,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
@@ -33275,7 +33275,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>248.0481664179327</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>339.3147979156453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>274.322361090163</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>225.9628574215817</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33755,10 +33755,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,13 +33971,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>208.1209162056323</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724846</v>
@@ -33989,7 +33989,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,16 +34208,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>160.3589574734782</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813462</v>
@@ -34226,13 +34226,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>154.8262692747933</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304447</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565519</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34448,25 +34448,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>213.98498291272</v>
       </c>
       <c r="N45" t="n">
-        <v>131.4209907335605</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>387.7042594048032</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7151385922962</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>219.5905899600003</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>695.1364854721053</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>523.5884703492288</v>
       </c>
       <c r="P18" t="n">
-        <v>310.5358892725502</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>286.9827555116977</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>479.0351819275418</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>650.1675982262112</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>534.1335636901026</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>440.4068817292163</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>469.5090125063944</v>
       </c>
       <c r="P30" t="n">
-        <v>335.8044176684889</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>374.6719644561524</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>523.8031591412522</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>136.480922115804</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>573.9635196818019</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>284.430535148626</v>
       </c>
       <c r="L39" t="n">
-        <v>440.4068817292173</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
@@ -37637,13 +37637,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>286.9827555116978</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>339.3146305004003</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>537.5560127407016</v>
       </c>
       <c r="N45" t="n">
-        <v>479.4216529937808</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3150961.869305754</v>
+        <v>3155901.132154785</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>731140.9876852932</v>
+        <v>710422.9531645487</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>32.54074588542559</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>196.2790335051142</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>94.65568569260694</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>99.72476023394486</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>161.5519252761216</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>92.05936778353016</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>21.39020682863971</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>57.64843562452401</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>149.2146404868054</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>1.797245289947522</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>60.51808258596485</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>82.9808704704261</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>65.69852179588931</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.2778500677816</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>991.2778500677816</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>633.0121514610312</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>247.2238988627869</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>240.2783981135835</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2498.887441013057</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942546</v>
+        <v>2245.125655651148</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1914.062768307577</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328861</v>
+        <v>1561.294113037463</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677816</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677816</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,28 +4406,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4467,73 +4467,73 @@
         <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>705.5532038521756</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>450.8687156462887</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>951.4492202526051</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>565.6609676543608</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>154.6750628647532</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L12" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735073</v>
+        <v>415.8299478944105</v>
       </c>
       <c r="C13" t="n">
-        <v>337.0962993456004</v>
+        <v>415.8299478944105</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.7133084820747</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799318</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471144</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119723</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035275</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035275</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035275</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>933.2366688293883</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>643.8194987924278</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>415.8299478944105</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>415.8299478944105</v>
       </c>
     </row>
     <row r="14">
@@ -5257,10 +5257,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,25 +5272,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5366,7 +5366,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,25 +5460,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,10 +5828,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1348.194411480321</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1124.408996269827</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>835.2803574833852</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.2803574833852</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6651,16 +6651,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
         <v>2056.693778606511</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>818.7109577742983</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7119,22 +7119,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,40 +7159,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>588.4743893200339</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7599,19 +7599,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>862.1113288466635</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,19 +7727,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>188.1432968786753</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>188.1432968786753</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.893885873787</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>356.6647764207315</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C46" t="n">
-        <v>356.6647764207315</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>356.6647764207315</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1415.097209476664</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293931</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924326</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="X46" t="n">
-        <v>577.4573555642615</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y46" t="n">
-        <v>356.6647764207315</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>56.55610523468219</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.0437558179295</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>228.5889167740533</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>48.70616949679783</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>284.7257530466435</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>88.09739043224751</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.98348193336669</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>160.0111335931479</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914263</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914264</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.495580334</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,34 +26426,34 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758691</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575909</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759104</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.793690575909</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671465</v>
+        <v>-155052.6805671468</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.1986473982</v>
+        <v>434915.1986473978</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473982</v>
+        <v>434915.198647398</v>
       </c>
       <c r="E6" t="n">
-        <v>6736.74820442394</v>
+        <v>7613.880338173315</v>
       </c>
       <c r="F6" t="n">
-        <v>531896.7846813198</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="G6" t="n">
-        <v>531896.78468132</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="H6" t="n">
-        <v>531896.7846813201</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="I6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150699</v>
       </c>
       <c r="J6" t="n">
-        <v>355473.5654887272</v>
+        <v>356350.6976224764</v>
       </c>
       <c r="K6" t="n">
-        <v>531896.7846813201</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="L6" t="n">
-        <v>531896.7846813198</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="M6" t="n">
-        <v>397095.7694474829</v>
+        <v>397972.9015812325</v>
       </c>
       <c r="N6" t="n">
-        <v>531896.7846813201</v>
+        <v>532773.9168150694</v>
       </c>
       <c r="O6" t="n">
-        <v>531896.78468132</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="P6" t="n">
-        <v>531896.78468132</v>
+        <v>532773.9168150696</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>381.2434241353694</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.16928685254362</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>263.9318516912617</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>191.8673126439841</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>314.0594097868501</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>54.89639508153618</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-3.32188779643964e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.707735062108396e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653216</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31624,19 +31624,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,25 +31834,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508807</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961213</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32083,13 +32083,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>392.6063366508803</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>392.6063366508803</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>392.6063366508803</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>224.6051223555648</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
         <v>224.6051223555648</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>92.59124326402498</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34456,13 +34456,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047518</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>740.6069989111005</v>
+        <v>740.606998911101</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799239</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>740.6069989111005</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>740.6069989111005</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>740.6069989111005</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>572.6057846157851</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>572.6057846157851</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.84465193776713</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
